--- a/Resources/TemplateFile/house_import_template.xlsx
+++ b/Resources/TemplateFile/house_import_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java enviroment\RuoYi-Vue-master\Resources\TemplateFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java project\zhaoxinms\zhaoxinpms\Resources\TemplateFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DE5ED6-CF3F-40E7-A24A-4C8D41422589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627004D0-F39D-4FDF-BB87-7810A4578BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1310" yWindow="3070" windowWidth="18060" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
-  <si>
-    <t>商铺编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>楼层</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,18 +42,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>填写商铺的编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>填写数字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>填写2位的数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>租金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -67,6 +55,26 @@
   </si>
   <si>
     <t>商业区编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请填写楼栋编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请填写楼层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请填写房间号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼栋编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,72 +475,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7265625" style="4" customWidth="1"/>
-    <col min="2" max="5" width="20.6328125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.1796875" style="7" customWidth="1"/>
+    <col min="1" max="2" width="20.7265625" style="4" customWidth="1"/>
+    <col min="3" max="6" width="20.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="112" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="112" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="F3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
